--- a/expedition_plan.xlsx
+++ b/expedition_plan.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabiofavoretto/CBMC Dropbox/Fabio/sargassum_expedition_2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabiofavoretto/CBMC Dropbox/Fabio/sargassum_expedition_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9A6DE97-C0B3-9044-870F-164D7CED5128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2717CDA-807F-014A-A582-8CEC54458361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="3800" windowWidth="28040" windowHeight="17440" xr2:uid="{BC2E60B9-E151-2645-8716-382EDD64126E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19400" activeTab="1" xr2:uid="{BC2E60B9-E151-2645-8716-382EDD64126E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -280,11 +281,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E90E5C-3295-2C4D-BC18-C5F8769BDB89}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -872,7 +872,7 @@
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -892,7 +892,7 @@
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -912,7 +912,7 @@
       <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -932,7 +932,7 @@
       <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -952,7 +952,7 @@
       <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -972,7 +972,7 @@
       <c r="D15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -992,7 +992,7 @@
       <c r="D16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1009,4 +1009,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A90362-36C6-9D43-BBD7-316FBF32EFA4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>